--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6285F658-2D10-4862-830D-1DC67035C497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -186,92 +176,103 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>調整記號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjRange</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作月</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>WorkSeason</t>
+  </si>
+  <si>
+    <t>工作季</t>
+  </si>
+  <si>
+    <t>WorkMonth</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PfItDetailAdjust</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BormNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款序號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,FacmNo,BormNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustFacmBormFirst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findWorkMonthFirst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND WorkMonth =</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkMonth ASC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>AdjCntingCode</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>調整記號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整後換算業績</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>業調整後務報酬</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整後業績金額</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjRange</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>1:同工作月調整   
+2:跨工作月調整</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前換算業績</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前換算業績</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前換算業績</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前是否計件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>介紹人業績調整檔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作月</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>WorkSeason</t>
-  </si>
-  <si>
-    <t>工作季</t>
-  </si>
-  <si>
-    <t>WorkMonth</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:無調整
-1:調整本月   
-2:調整本月及季累計</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整後是否計件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>PfItDetailAdjust</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BormNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>撥款序號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCustFacmBormFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo,FacmNo,BormNo</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -462,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,10 +479,10 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,9 +491,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -502,7 +500,7 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -526,7 +524,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -535,9 +533,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -547,41 +542,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -598,10 +566,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2 4" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -692,23 +660,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -744,23 +695,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -936,115 +870,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.5546875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="41" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="24"/>
+    <col min="1" max="1" width="6" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.5546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="41" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="21"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="22"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="22"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="22"/>
+        <v>53</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="11"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1063,296 +997,292 @@
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="27"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <f t="shared" ref="A11:A23" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="37" t="s">
+      <c r="B12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="37" t="s">
+      <c r="B13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="18">
         <v>6</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="39">
+      <c r="B14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="18">
         <v>5</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:7" s="13" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="27">
         <v>1</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="G15" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="18">
         <v>16</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="13">
         <v>2</v>
       </c>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="34" t="s">
+      <c r="C17" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="18">
         <v>16</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="13">
         <v>2</v>
       </c>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="18">
         <v>16</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="13">
         <v>2</v>
       </c>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="34" t="s">
+      <c r="B19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="18">
         <v>1</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
+      <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>6</v>
       </c>
     </row>
@@ -1373,12 +1303,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1402,10 +1332,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetailAdjust.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC91B12-73B0-4CD2-906D-8B9BE822117B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -111,10 +112,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -267,12 +264,15 @@
   <si>
     <t>介紹人業績調整檔</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -566,10 +566,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
-    <cellStyle name="一般 2 4" xfId="4"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,9 +585,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -625,9 +625,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,7 +662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,7 +697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -870,11 +870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -895,10 +895,10 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -923,7 +923,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>18</v>
@@ -949,7 +949,7 @@
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="5"/>
@@ -1006,13 +1006,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1024,10 +1024,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>21</v>
@@ -1060,10 +1060,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>21</v>
@@ -1078,10 +1078,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>21</v>
@@ -1097,13 +1097,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="18">
         <v>5</v>
@@ -1116,10 +1116,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>21</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1137,10 +1137,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>21</v>
@@ -1159,10 +1159,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>21</v>
@@ -1181,10 +1181,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>21</v>
@@ -1203,19 +1203,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="18">
         <v>1</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1230,7 +1230,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E20" s="18"/>
     </row>
@@ -1240,13 +1240,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="E21" s="18">
         <v>6</v>
@@ -1258,13 +1258,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="D22" s="16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E22" s="18"/>
     </row>
@@ -1274,13 +1274,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="D23" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="18">
         <v>6</v>
@@ -1303,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1332,21 +1332,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
